--- a/src/main/java/excelExportAndFileIO/ExportExcel.xlsx
+++ b/src/main/java/excelExportAndFileIO/ExportExcel.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8010" uniqueCount="5924">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8213" uniqueCount="6098">
   <si>
     <t>Result</t>
   </si>
@@ -17797,6 +17797,528 @@
   </si>
   <si>
     <t>check Tola Karma</t>
+  </si>
+  <si>
+    <t>Tola Datkichwa is correct</t>
+  </si>
+  <si>
+    <t>Tola Kaljugaha is correct</t>
+  </si>
+  <si>
+    <t>Tola Kakania is correct</t>
+  </si>
+  <si>
+    <t>Tola Kabar Kalan is correct</t>
+  </si>
+  <si>
+    <t>Tola Pipra is correct</t>
+  </si>
+  <si>
+    <t>Tola Dhawatanr is correct</t>
+  </si>
+  <si>
+    <t>Tola Kanan - City name is different</t>
+  </si>
+  <si>
+    <t>Tola Benibank is correct</t>
+  </si>
+  <si>
+    <t>Tola Ramdih is correct</t>
+  </si>
+  <si>
+    <t>Tola Khoriparas is correct</t>
+  </si>
+  <si>
+    <t>Tola Patao is correct</t>
+  </si>
+  <si>
+    <t>Tola EKdara is correct</t>
+  </si>
+  <si>
+    <t>Tola Dhapri Kita is correct</t>
+  </si>
+  <si>
+    <t>Tola Sundari is correct</t>
+  </si>
+  <si>
+    <t>Tola Algajara is correct</t>
+  </si>
+  <si>
+    <t>Tola Manikura is correct</t>
+  </si>
+  <si>
+    <t>Tola Nathukura is correct</t>
+  </si>
+  <si>
+    <t>Tola Gongakura is correct</t>
+  </si>
+  <si>
+    <t>Tola Nauakura is correct</t>
+  </si>
+  <si>
+    <t>Tola Dhobiakura is correct</t>
+  </si>
+  <si>
+    <t>Tola Chito Chak is correct</t>
+  </si>
+  <si>
+    <t>Tola Baramasia is correct</t>
+  </si>
+  <si>
+    <t>Tola Mahapur - City name is different</t>
+  </si>
+  <si>
+    <t>Tola Tumbapahar is correct</t>
+  </si>
+  <si>
+    <t>Tola Burhnair is correct</t>
+  </si>
+  <si>
+    <t>Tola Harna is correct</t>
+  </si>
+  <si>
+    <t>Tola Satighat is correct</t>
+  </si>
+  <si>
+    <t>Tola Tetaria Kalan is correct</t>
+  </si>
+  <si>
+    <t>Tola Tetaria Khurd is correct</t>
+  </si>
+  <si>
+    <t>Tola Tara Kura Nawadih is correct</t>
+  </si>
+  <si>
+    <t>Tola Tara Kura Chhapa is correct</t>
+  </si>
+  <si>
+    <t>Tola Barajor is correct</t>
+  </si>
+  <si>
+    <t>Tola Harhanja is correct</t>
+  </si>
+  <si>
+    <t>Tola Chhapa - City name is different</t>
+  </si>
+  <si>
+    <t>Tola Baratanr is correct</t>
+  </si>
+  <si>
+    <t>Tola Karhara - City name is different</t>
+  </si>
+  <si>
+    <t>Tola Goradamgi is correct</t>
+  </si>
+  <si>
+    <t>Tola Kathautia Kalan is correct</t>
+  </si>
+  <si>
+    <t>Tola Kathautia Kurd is correct</t>
+  </si>
+  <si>
+    <t>Tola Balapanrar is correct</t>
+  </si>
+  <si>
+    <t>Tola Dumarmah is correct</t>
+  </si>
+  <si>
+    <t>Tola Sikardih is correct</t>
+  </si>
+  <si>
+    <t>Tola Kauatol is correct</t>
+  </si>
+  <si>
+    <t>Tola Porsil is correct</t>
+  </si>
+  <si>
+    <t>Tola Parsatanr is correct</t>
+  </si>
+  <si>
+    <t>Tola Ukharia is correct</t>
+  </si>
+  <si>
+    <t>Tola Asta is correct</t>
+  </si>
+  <si>
+    <t>Tola Dario is correct</t>
+  </si>
+  <si>
+    <t>Tola Borwa - City name is different</t>
+  </si>
+  <si>
+    <t>Tola Gandeghat is correct</t>
+  </si>
+  <si>
+    <t>Tola Bishunpur is correct</t>
+  </si>
+  <si>
+    <t>Tola Dongajharna is correct</t>
+  </si>
+  <si>
+    <t>Tola Bakhori Bathan is correct</t>
+  </si>
+  <si>
+    <t>Tola Maniktham is correct</t>
+  </si>
+  <si>
+    <t>Tola Narganjo is correct</t>
+  </si>
+  <si>
+    <t>Tola Siritanr is correct</t>
+  </si>
+  <si>
+    <t>Tola Tithichak is correct</t>
+  </si>
+  <si>
+    <t>Tola Kumhaini is correct</t>
+  </si>
+  <si>
+    <t>Tola Pidron is correct</t>
+  </si>
+  <si>
+    <t>Tola Agaria Kalan is correct</t>
+  </si>
+  <si>
+    <t>Tola Agaria Khurd is correct</t>
+  </si>
+  <si>
+    <t>Tola Rajla Kalan - City name is different</t>
+  </si>
+  <si>
+    <t>Tola Rajla Khurd is correct</t>
+  </si>
+  <si>
+    <t>Tola Tabhwa is correct</t>
+  </si>
+  <si>
+    <t>Tola Naugain is correct</t>
+  </si>
+  <si>
+    <t>Tola Rupatari is correct</t>
+  </si>
+  <si>
+    <t>Tola Nagarwatari is correct</t>
+  </si>
+  <si>
+    <t>Tola Parasi is correct</t>
+  </si>
+  <si>
+    <t>Tola Dhakio is correct</t>
+  </si>
+  <si>
+    <t>Tola Ghormara - City name is different</t>
+  </si>
+  <si>
+    <t>Tola Barakola - City name is different</t>
+  </si>
+  <si>
+    <t>Tola Pichani is correct</t>
+  </si>
+  <si>
+    <t>Tola Pachkathia is correct</t>
+  </si>
+  <si>
+    <t>Tola Paijharna is correct</t>
+  </si>
+  <si>
+    <t>Tola Kansajharna is correct</t>
+  </si>
+  <si>
+    <t>Tola Dhanukatari is correct</t>
+  </si>
+  <si>
+    <t>Tola Jinatbhandar is correct</t>
+  </si>
+  <si>
+    <t>Tola Jurpania is correct</t>
+  </si>
+  <si>
+    <t>Tola Thelpathal is correct</t>
+  </si>
+  <si>
+    <t>Machhendra is correct</t>
+  </si>
+  <si>
+    <t>Dhiba is correct</t>
+  </si>
+  <si>
+    <t>Ramdaspur is correct</t>
+  </si>
+  <si>
+    <t>Kharhaia Urf Jamu - City name is different</t>
+  </si>
+  <si>
+    <t>Sidhesri is correct</t>
+  </si>
+  <si>
+    <t>Hathia is correct</t>
+  </si>
+  <si>
+    <t>Tola Amakoli is correct</t>
+  </si>
+  <si>
+    <t>Tola Dudharwa is correct</t>
+  </si>
+  <si>
+    <t>Tola Hardia is correct</t>
+  </si>
+  <si>
+    <t>Tola Dahua is correct</t>
+  </si>
+  <si>
+    <t>Tola Debiyadih is correct</t>
+  </si>
+  <si>
+    <t>Tola Mantari is correct</t>
+  </si>
+  <si>
+    <t>Tola Karmatanr is correct</t>
+  </si>
+  <si>
+    <t>Tola Ghorparan is correct</t>
+  </si>
+  <si>
+    <t>Tola Patua is correct</t>
+  </si>
+  <si>
+    <t>Tola Amjhari is correct</t>
+  </si>
+  <si>
+    <t>Tola Kusmha is correct</t>
+  </si>
+  <si>
+    <t>Tola Kanaudi - City name is different</t>
+  </si>
+  <si>
+    <t>Tola Khurandadhorari is correct</t>
+  </si>
+  <si>
+    <t>Tola Khuranda - City name is different</t>
+  </si>
+  <si>
+    <t>Tola Gopalmaran is correct</t>
+  </si>
+  <si>
+    <t>Tola Bangawan is correct</t>
+  </si>
+  <si>
+    <t>Tola Lilabaran is correct</t>
+  </si>
+  <si>
+    <t>Tola kenuar is correct</t>
+  </si>
+  <si>
+    <t>Tola Tithi  Chak - City name is different</t>
+  </si>
+  <si>
+    <t>Tola Tilauna is correct</t>
+  </si>
+  <si>
+    <t>Tola Bastiyadih is correct</t>
+  </si>
+  <si>
+    <t>Tola Karijhal is correct</t>
+  </si>
+  <si>
+    <t>Tola Ghontari is correct</t>
+  </si>
+  <si>
+    <t>Tola Khawa is correct</t>
+  </si>
+  <si>
+    <t>Tola Damgitar is correct</t>
+  </si>
+  <si>
+    <t>Tola Nagwe is correct</t>
+  </si>
+  <si>
+    <t>Tola Taraun is correct</t>
+  </si>
+  <si>
+    <t>Tola Godaia is correct</t>
+  </si>
+  <si>
+    <t>Tola Pandua is correct</t>
+  </si>
+  <si>
+    <t>Tola Simaltala - City name is different</t>
+  </si>
+  <si>
+    <t>Tola Siantanr is correct</t>
+  </si>
+  <si>
+    <t>Tola Baraundhia - City name is different</t>
+  </si>
+  <si>
+    <t>Tola Majhiakura is correct</t>
+  </si>
+  <si>
+    <t>Tola Pararia is correct</t>
+  </si>
+  <si>
+    <t>Tola Telwabazar - City name is different</t>
+  </si>
+  <si>
+    <t>Tola Depura is correct</t>
+  </si>
+  <si>
+    <t>Tola Ghasitari is correct</t>
+  </si>
+  <si>
+    <t>Tola Dhonrari is correct</t>
+  </si>
+  <si>
+    <t>Tola Chiraiya is correct</t>
+  </si>
+  <si>
+    <t>Tola Arpathal - City name is different</t>
+  </si>
+  <si>
+    <t>Tola Telwa is correct</t>
+  </si>
+  <si>
+    <t>Tola Burhiabari is correct</t>
+  </si>
+  <si>
+    <t>Tola Pathal Chapti is correct</t>
+  </si>
+  <si>
+    <t>check Tola Chain (CT)</t>
+  </si>
+  <si>
+    <t>check Tola Baliadih (CT)</t>
+  </si>
+  <si>
+    <t>Gangra - City name is different</t>
+  </si>
+  <si>
+    <t>Sansarpur is correct</t>
+  </si>
+  <si>
+    <t>Ketru Nawada is correct</t>
+  </si>
+  <si>
+    <t>Banjhulia is correct</t>
+  </si>
+  <si>
+    <t>Bandhaura is correct</t>
+  </si>
+  <si>
+    <t>Patsanda is correct</t>
+  </si>
+  <si>
+    <t>Dhobghat is correct</t>
+  </si>
+  <si>
+    <t>Simaria - City name is different</t>
+  </si>
+  <si>
+    <t>Kumardih is correct</t>
+  </si>
+  <si>
+    <t>Sewa is correct</t>
+  </si>
+  <si>
+    <t>Kundhur is correct</t>
+  </si>
+  <si>
+    <t>Nayagaon is correct</t>
+  </si>
+  <si>
+    <t>Genadih is correct</t>
+  </si>
+  <si>
+    <t>Guguldih ( Part in Barhat ) - City name is different</t>
+  </si>
+  <si>
+    <t>Chandabank is correct</t>
+  </si>
+  <si>
+    <t>Singarpur is correct</t>
+  </si>
+  <si>
+    <t>Nauniatanr is correct</t>
+  </si>
+  <si>
+    <t>Khutauna is correct</t>
+  </si>
+  <si>
+    <t>Mahapur Khurd is correct</t>
+  </si>
+  <si>
+    <t>Dumarkola is correct</t>
+  </si>
+  <si>
+    <t>Kashmir is correct</t>
+  </si>
+  <si>
+    <t>check Kasbagidhaur</t>
+  </si>
+  <si>
+    <t>Ghanberia is correct</t>
+  </si>
+  <si>
+    <t>Raipura is correct</t>
+  </si>
+  <si>
+    <t>Karan Nawada is correct</t>
+  </si>
+  <si>
+    <t>Kendih is correct</t>
+  </si>
+  <si>
+    <t>Baribag Jaljoga is correct</t>
+  </si>
+  <si>
+    <t>check Baheratari</t>
+  </si>
+  <si>
+    <t>Jorbaha Dharampur is correct</t>
+  </si>
+  <si>
+    <t>Chaukitanr Deyaldih is correct</t>
+  </si>
+  <si>
+    <t>Daingarwaphulandih is correct</t>
+  </si>
+  <si>
+    <t>check Tola Dainagarwa Meghuraidih</t>
+  </si>
+  <si>
+    <t>Tola Naukadih is correct</t>
+  </si>
+  <si>
+    <t>Tola Bhimain - City name is different</t>
+  </si>
+  <si>
+    <t>Tola Barabandh is correct</t>
+  </si>
+  <si>
+    <t>Tola Chandar Seli is correct</t>
+  </si>
+  <si>
+    <t>Tola Bheriatari is correct</t>
+  </si>
+  <si>
+    <t>Tola Pachrukhi is correct</t>
+  </si>
+  <si>
+    <t>check Tola Kurhwabarhia Khandari</t>
+  </si>
+  <si>
+    <t>Tola Andar kurwa is correct</t>
+  </si>
+  <si>
+    <t>Tola Domantari is correct</t>
+  </si>
+  <si>
+    <t>Tola Pesra is correct</t>
+  </si>
+  <si>
+    <t>Tola Bhalni is correct</t>
+  </si>
+  <si>
+    <t>Tola Purni Chhit is correct</t>
   </si>
 </sst>
 </file>
@@ -18115,7 +18637,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A8010"/>
+  <dimension ref="A1:A8213"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -58171,6 +58693,1021 @@
         <v>5923</v>
       </c>
     </row>
+    <row r="8011">
+      <c r="A8011" t="s">
+        <v>5924</v>
+      </c>
+    </row>
+    <row r="8012">
+      <c r="A8012" t="s">
+        <v>5925</v>
+      </c>
+    </row>
+    <row r="8013">
+      <c r="A8013" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="8014">
+      <c r="A8014" t="s">
+        <v>5926</v>
+      </c>
+    </row>
+    <row r="8015">
+      <c r="A8015" t="s">
+        <v>5927</v>
+      </c>
+    </row>
+    <row r="8016">
+      <c r="A8016" t="s">
+        <v>5928</v>
+      </c>
+    </row>
+    <row r="8017">
+      <c r="A8017" t="s">
+        <v>5929</v>
+      </c>
+    </row>
+    <row r="8018">
+      <c r="A8018" t="s">
+        <v>5930</v>
+      </c>
+    </row>
+    <row r="8019">
+      <c r="A8019" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="8020">
+      <c r="A8020" t="s">
+        <v>5931</v>
+      </c>
+    </row>
+    <row r="8021">
+      <c r="A8021" t="s">
+        <v>5932</v>
+      </c>
+    </row>
+    <row r="8022">
+      <c r="A8022" t="s">
+        <v>5933</v>
+      </c>
+    </row>
+    <row r="8023">
+      <c r="A8023" t="s">
+        <v>5934</v>
+      </c>
+    </row>
+    <row r="8024">
+      <c r="A8024" t="s">
+        <v>5935</v>
+      </c>
+    </row>
+    <row r="8025">
+      <c r="A8025" t="s">
+        <v>5936</v>
+      </c>
+    </row>
+    <row r="8026">
+      <c r="A8026" t="s">
+        <v>5937</v>
+      </c>
+    </row>
+    <row r="8027">
+      <c r="A8027" t="s">
+        <v>5938</v>
+      </c>
+    </row>
+    <row r="8028">
+      <c r="A8028" t="s">
+        <v>5939</v>
+      </c>
+    </row>
+    <row r="8029">
+      <c r="A8029" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="8030">
+      <c r="A8030" t="s">
+        <v>5940</v>
+      </c>
+    </row>
+    <row r="8031">
+      <c r="A8031" t="s">
+        <v>5941</v>
+      </c>
+    </row>
+    <row r="8032">
+      <c r="A8032" t="s">
+        <v>5942</v>
+      </c>
+    </row>
+    <row r="8033">
+      <c r="A8033" t="s">
+        <v>5943</v>
+      </c>
+    </row>
+    <row r="8034">
+      <c r="A8034" t="s">
+        <v>5944</v>
+      </c>
+    </row>
+    <row r="8035">
+      <c r="A8035" t="s">
+        <v>5945</v>
+      </c>
+    </row>
+    <row r="8036">
+      <c r="A8036" t="s">
+        <v>5946</v>
+      </c>
+    </row>
+    <row r="8037">
+      <c r="A8037" t="s">
+        <v>5947</v>
+      </c>
+    </row>
+    <row r="8038">
+      <c r="A8038" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="8039">
+      <c r="A8039" t="s">
+        <v>5948</v>
+      </c>
+    </row>
+    <row r="8040">
+      <c r="A8040" t="s">
+        <v>5949</v>
+      </c>
+    </row>
+    <row r="8041">
+      <c r="A8041" t="s">
+        <v>5950</v>
+      </c>
+    </row>
+    <row r="8042">
+      <c r="A8042" t="s">
+        <v>5951</v>
+      </c>
+    </row>
+    <row r="8043">
+      <c r="A8043" t="s">
+        <v>5952</v>
+      </c>
+    </row>
+    <row r="8044">
+      <c r="A8044" t="s">
+        <v>5788</v>
+      </c>
+    </row>
+    <row r="8045">
+      <c r="A8045" t="s">
+        <v>5953</v>
+      </c>
+    </row>
+    <row r="8046">
+      <c r="A8046" t="s">
+        <v>5954</v>
+      </c>
+    </row>
+    <row r="8047">
+      <c r="A8047" t="s">
+        <v>5955</v>
+      </c>
+    </row>
+    <row r="8048">
+      <c r="A8048" t="s">
+        <v>5956</v>
+      </c>
+    </row>
+    <row r="8049">
+      <c r="A8049" t="s">
+        <v>5957</v>
+      </c>
+    </row>
+    <row r="8050">
+      <c r="A8050" t="s">
+        <v>5958</v>
+      </c>
+    </row>
+    <row r="8051">
+      <c r="A8051" t="s">
+        <v>5959</v>
+      </c>
+    </row>
+    <row r="8052">
+      <c r="A8052" t="s">
+        <v>5960</v>
+      </c>
+    </row>
+    <row r="8053">
+      <c r="A8053" t="s">
+        <v>5961</v>
+      </c>
+    </row>
+    <row r="8054">
+      <c r="A8054" t="s">
+        <v>5962</v>
+      </c>
+    </row>
+    <row r="8055">
+      <c r="A8055" t="s">
+        <v>5963</v>
+      </c>
+    </row>
+    <row r="8056">
+      <c r="A8056" t="s">
+        <v>5964</v>
+      </c>
+    </row>
+    <row r="8057">
+      <c r="A8057" t="s">
+        <v>5965</v>
+      </c>
+    </row>
+    <row r="8058">
+      <c r="A8058" t="s">
+        <v>5966</v>
+      </c>
+    </row>
+    <row r="8059">
+      <c r="A8059" t="s">
+        <v>5967</v>
+      </c>
+    </row>
+    <row r="8060">
+      <c r="A8060" t="s">
+        <v>5968</v>
+      </c>
+    </row>
+    <row r="8061">
+      <c r="A8061" t="s">
+        <v>5969</v>
+      </c>
+    </row>
+    <row r="8062">
+      <c r="A8062" t="s">
+        <v>5970</v>
+      </c>
+    </row>
+    <row r="8063">
+      <c r="A8063" t="s">
+        <v>5971</v>
+      </c>
+    </row>
+    <row r="8064">
+      <c r="A8064" t="s">
+        <v>5972</v>
+      </c>
+    </row>
+    <row r="8065">
+      <c r="A8065" t="s">
+        <v>5973</v>
+      </c>
+    </row>
+    <row r="8066">
+      <c r="A8066" t="s">
+        <v>5974</v>
+      </c>
+    </row>
+    <row r="8067">
+      <c r="A8067" t="s">
+        <v>5975</v>
+      </c>
+    </row>
+    <row r="8068">
+      <c r="A8068" t="s">
+        <v>5976</v>
+      </c>
+    </row>
+    <row r="8069">
+      <c r="A8069" t="s">
+        <v>5977</v>
+      </c>
+    </row>
+    <row r="8070">
+      <c r="A8070" t="s">
+        <v>5978</v>
+      </c>
+    </row>
+    <row r="8071">
+      <c r="A8071" t="s">
+        <v>5979</v>
+      </c>
+    </row>
+    <row r="8072">
+      <c r="A8072" t="s">
+        <v>5980</v>
+      </c>
+    </row>
+    <row r="8073">
+      <c r="A8073" t="s">
+        <v>5981</v>
+      </c>
+    </row>
+    <row r="8074">
+      <c r="A8074" t="s">
+        <v>5982</v>
+      </c>
+    </row>
+    <row r="8075">
+      <c r="A8075" t="s">
+        <v>5983</v>
+      </c>
+    </row>
+    <row r="8076">
+      <c r="A8076" t="s">
+        <v>5984</v>
+      </c>
+    </row>
+    <row r="8077">
+      <c r="A8077" t="s">
+        <v>5985</v>
+      </c>
+    </row>
+    <row r="8078">
+      <c r="A8078" t="s">
+        <v>5986</v>
+      </c>
+    </row>
+    <row r="8079">
+      <c r="A8079" t="s">
+        <v>5987</v>
+      </c>
+    </row>
+    <row r="8080">
+      <c r="A8080" t="s">
+        <v>5988</v>
+      </c>
+    </row>
+    <row r="8081">
+      <c r="A8081" t="s">
+        <v>5989</v>
+      </c>
+    </row>
+    <row r="8082">
+      <c r="A8082" t="s">
+        <v>5990</v>
+      </c>
+    </row>
+    <row r="8083">
+      <c r="A8083" t="s">
+        <v>5991</v>
+      </c>
+    </row>
+    <row r="8084">
+      <c r="A8084" t="s">
+        <v>5992</v>
+      </c>
+    </row>
+    <row r="8085">
+      <c r="A8085" t="s">
+        <v>5993</v>
+      </c>
+    </row>
+    <row r="8086">
+      <c r="A8086" t="s">
+        <v>5994</v>
+      </c>
+    </row>
+    <row r="8087">
+      <c r="A8087" t="s">
+        <v>5995</v>
+      </c>
+    </row>
+    <row r="8088">
+      <c r="A8088" t="s">
+        <v>5996</v>
+      </c>
+    </row>
+    <row r="8089">
+      <c r="A8089" t="s">
+        <v>5997</v>
+      </c>
+    </row>
+    <row r="8090">
+      <c r="A8090" t="s">
+        <v>5998</v>
+      </c>
+    </row>
+    <row r="8091">
+      <c r="A8091" t="s">
+        <v>5999</v>
+      </c>
+    </row>
+    <row r="8092">
+      <c r="A8092" t="s">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="8093">
+      <c r="A8093" t="s">
+        <v>6001</v>
+      </c>
+    </row>
+    <row r="8094">
+      <c r="A8094" t="s">
+        <v>6002</v>
+      </c>
+    </row>
+    <row r="8095">
+      <c r="A8095" t="s">
+        <v>6003</v>
+      </c>
+    </row>
+    <row r="8096">
+      <c r="A8096" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="8097">
+      <c r="A8097" t="s">
+        <v>3184</v>
+      </c>
+    </row>
+    <row r="8098">
+      <c r="A8098" t="s">
+        <v>6004</v>
+      </c>
+    </row>
+    <row r="8099">
+      <c r="A8099" t="s">
+        <v>1288</v>
+      </c>
+    </row>
+    <row r="8100">
+      <c r="A8100" t="s">
+        <v>6005</v>
+      </c>
+    </row>
+    <row r="8101">
+      <c r="A8101" t="s">
+        <v>6006</v>
+      </c>
+    </row>
+    <row r="8102">
+      <c r="A8102" t="s">
+        <v>6007</v>
+      </c>
+    </row>
+    <row r="8103">
+      <c r="A8103" t="s">
+        <v>6008</v>
+      </c>
+    </row>
+    <row r="8104">
+      <c r="A8104" t="s">
+        <v>6009</v>
+      </c>
+    </row>
+    <row r="8105">
+      <c r="A8105" t="s">
+        <v>6010</v>
+      </c>
+    </row>
+    <row r="8106">
+      <c r="A8106" t="s">
+        <v>6011</v>
+      </c>
+    </row>
+    <row r="8107">
+      <c r="A8107" t="s">
+        <v>6012</v>
+      </c>
+    </row>
+    <row r="8108">
+      <c r="A8108" t="s">
+        <v>6013</v>
+      </c>
+    </row>
+    <row r="8109">
+      <c r="A8109" t="s">
+        <v>6014</v>
+      </c>
+    </row>
+    <row r="8110">
+      <c r="A8110" t="s">
+        <v>6015</v>
+      </c>
+    </row>
+    <row r="8111">
+      <c r="A8111" t="s">
+        <v>6016</v>
+      </c>
+    </row>
+    <row r="8112">
+      <c r="A8112" t="s">
+        <v>6017</v>
+      </c>
+    </row>
+    <row r="8113">
+      <c r="A8113" t="s">
+        <v>6018</v>
+      </c>
+    </row>
+    <row r="8114">
+      <c r="A8114" t="s">
+        <v>6019</v>
+      </c>
+    </row>
+    <row r="8115">
+      <c r="A8115" t="s">
+        <v>6020</v>
+      </c>
+    </row>
+    <row r="8116">
+      <c r="A8116" t="s">
+        <v>6021</v>
+      </c>
+    </row>
+    <row r="8117">
+      <c r="A8117" t="s">
+        <v>6022</v>
+      </c>
+    </row>
+    <row r="8118">
+      <c r="A8118" t="s">
+        <v>6023</v>
+      </c>
+    </row>
+    <row r="8119">
+      <c r="A8119" t="s">
+        <v>6024</v>
+      </c>
+    </row>
+    <row r="8120">
+      <c r="A8120" t="s">
+        <v>6025</v>
+      </c>
+    </row>
+    <row r="8121">
+      <c r="A8121" t="s">
+        <v>6026</v>
+      </c>
+    </row>
+    <row r="8122">
+      <c r="A8122" t="s">
+        <v>6027</v>
+      </c>
+    </row>
+    <row r="8123">
+      <c r="A8123" t="s">
+        <v>6028</v>
+      </c>
+    </row>
+    <row r="8124">
+      <c r="A8124" t="s">
+        <v>6029</v>
+      </c>
+    </row>
+    <row r="8125">
+      <c r="A8125" t="s">
+        <v>6030</v>
+      </c>
+    </row>
+    <row r="8126">
+      <c r="A8126" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="8127">
+      <c r="A8127" t="s">
+        <v>6031</v>
+      </c>
+    </row>
+    <row r="8128">
+      <c r="A8128" t="s">
+        <v>6032</v>
+      </c>
+    </row>
+    <row r="8129">
+      <c r="A8129" t="s">
+        <v>6033</v>
+      </c>
+    </row>
+    <row r="8130">
+      <c r="A8130" t="s">
+        <v>6034</v>
+      </c>
+    </row>
+    <row r="8131">
+      <c r="A8131" t="s">
+        <v>6035</v>
+      </c>
+    </row>
+    <row r="8132">
+      <c r="A8132" t="s">
+        <v>6036</v>
+      </c>
+    </row>
+    <row r="8133">
+      <c r="A8133" t="s">
+        <v>6037</v>
+      </c>
+    </row>
+    <row r="8134">
+      <c r="A8134" t="s">
+        <v>6038</v>
+      </c>
+    </row>
+    <row r="8135">
+      <c r="A8135" t="s">
+        <v>6039</v>
+      </c>
+    </row>
+    <row r="8136">
+      <c r="A8136" t="s">
+        <v>6040</v>
+      </c>
+    </row>
+    <row r="8137">
+      <c r="A8137" t="s">
+        <v>6041</v>
+      </c>
+    </row>
+    <row r="8138">
+      <c r="A8138" t="s">
+        <v>6042</v>
+      </c>
+    </row>
+    <row r="8139">
+      <c r="A8139" t="s">
+        <v>6043</v>
+      </c>
+    </row>
+    <row r="8140">
+      <c r="A8140" t="s">
+        <v>6044</v>
+      </c>
+    </row>
+    <row r="8141">
+      <c r="A8141" t="s">
+        <v>6045</v>
+      </c>
+    </row>
+    <row r="8142">
+      <c r="A8142" t="s">
+        <v>5869</v>
+      </c>
+    </row>
+    <row r="8143">
+      <c r="A8143" t="s">
+        <v>6046</v>
+      </c>
+    </row>
+    <row r="8144">
+      <c r="A8144" t="s">
+        <v>6047</v>
+      </c>
+    </row>
+    <row r="8145">
+      <c r="A8145" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="8146">
+      <c r="A8146" t="s">
+        <v>6048</v>
+      </c>
+    </row>
+    <row r="8147">
+      <c r="A8147" t="s">
+        <v>6049</v>
+      </c>
+    </row>
+    <row r="8148">
+      <c r="A8148" t="s">
+        <v>6050</v>
+      </c>
+    </row>
+    <row r="8149">
+      <c r="A8149" t="s">
+        <v>6051</v>
+      </c>
+    </row>
+    <row r="8150">
+      <c r="A8150" t="s">
+        <v>6052</v>
+      </c>
+    </row>
+    <row r="8151">
+      <c r="A8151" t="s">
+        <v>6053</v>
+      </c>
+    </row>
+    <row r="8152">
+      <c r="A8152" t="s">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="8153">
+      <c r="A8153" t="s">
+        <v>6054</v>
+      </c>
+    </row>
+    <row r="8154">
+      <c r="A8154" t="s">
+        <v>6055</v>
+      </c>
+    </row>
+    <row r="8155">
+      <c r="A8155" t="s">
+        <v>6056</v>
+      </c>
+    </row>
+    <row r="8156">
+      <c r="A8156" t="s">
+        <v>6057</v>
+      </c>
+    </row>
+    <row r="8157">
+      <c r="A8157" t="s">
+        <v>3989</v>
+      </c>
+    </row>
+    <row r="8158">
+      <c r="A8158" t="s">
+        <v>6058</v>
+      </c>
+    </row>
+    <row r="8159">
+      <c r="A8159" t="s">
+        <v>6059</v>
+      </c>
+    </row>
+    <row r="8160">
+      <c r="A8160" t="s">
+        <v>6060</v>
+      </c>
+    </row>
+    <row r="8161">
+      <c r="A8161" t="s">
+        <v>6061</v>
+      </c>
+    </row>
+    <row r="8162">
+      <c r="A8162" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8163">
+      <c r="A8163" t="s">
+        <v>6062</v>
+      </c>
+    </row>
+    <row r="8164">
+      <c r="A8164" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="8165">
+      <c r="A8165" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="8166">
+      <c r="A8166" t="s">
+        <v>6063</v>
+      </c>
+    </row>
+    <row r="8167">
+      <c r="A8167" t="s">
+        <v>2160</v>
+      </c>
+    </row>
+    <row r="8168">
+      <c r="A8168" t="s">
+        <v>6064</v>
+      </c>
+    </row>
+    <row r="8169">
+      <c r="A8169" t="s">
+        <v>6065</v>
+      </c>
+    </row>
+    <row r="8170">
+      <c r="A8170" t="s">
+        <v>6066</v>
+      </c>
+    </row>
+    <row r="8171">
+      <c r="A8171" t="s">
+        <v>6067</v>
+      </c>
+    </row>
+    <row r="8172">
+      <c r="A8172" t="s">
+        <v>6068</v>
+      </c>
+    </row>
+    <row r="8173">
+      <c r="A8173" t="s">
+        <v>6069</v>
+      </c>
+    </row>
+    <row r="8174">
+      <c r="A8174" t="s">
+        <v>4999</v>
+      </c>
+    </row>
+    <row r="8175">
+      <c r="A8175" t="s">
+        <v>1261</v>
+      </c>
+    </row>
+    <row r="8176">
+      <c r="A8176" t="s">
+        <v>4773</v>
+      </c>
+    </row>
+    <row r="8177">
+      <c r="A8177" t="s">
+        <v>6070</v>
+      </c>
+    </row>
+    <row r="8178">
+      <c r="A8178" t="s">
+        <v>3443</v>
+      </c>
+    </row>
+    <row r="8179">
+      <c r="A8179" t="s">
+        <v>6071</v>
+      </c>
+    </row>
+    <row r="8180">
+      <c r="A8180" t="s">
+        <v>1657</v>
+      </c>
+    </row>
+    <row r="8181">
+      <c r="A8181" t="s">
+        <v>6072</v>
+      </c>
+    </row>
+    <row r="8182">
+      <c r="A8182" t="s">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="8183">
+      <c r="A8183" t="s">
+        <v>6073</v>
+      </c>
+    </row>
+    <row r="8184">
+      <c r="A8184" t="s">
+        <v>6074</v>
+      </c>
+    </row>
+    <row r="8185">
+      <c r="A8185" t="s">
+        <v>6075</v>
+      </c>
+    </row>
+    <row r="8186">
+      <c r="A8186" t="s">
+        <v>6076</v>
+      </c>
+    </row>
+    <row r="8187">
+      <c r="A8187" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="8188">
+      <c r="A8188" t="s">
+        <v>6077</v>
+      </c>
+    </row>
+    <row r="8189">
+      <c r="A8189" t="s">
+        <v>6078</v>
+      </c>
+    </row>
+    <row r="8190">
+      <c r="A8190" t="s">
+        <v>6079</v>
+      </c>
+    </row>
+    <row r="8191">
+      <c r="A8191" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="8192">
+      <c r="A8192" t="s">
+        <v>3926</v>
+      </c>
+    </row>
+    <row r="8193">
+      <c r="A8193" t="s">
+        <v>1302</v>
+      </c>
+    </row>
+    <row r="8194">
+      <c r="A8194" t="s">
+        <v>6080</v>
+      </c>
+    </row>
+    <row r="8195">
+      <c r="A8195" t="s">
+        <v>1431</v>
+      </c>
+    </row>
+    <row r="8196">
+      <c r="A8196" t="s">
+        <v>6081</v>
+      </c>
+    </row>
+    <row r="8197">
+      <c r="A8197" t="s">
+        <v>6082</v>
+      </c>
+    </row>
+    <row r="8198">
+      <c r="A8198" t="s">
+        <v>6083</v>
+      </c>
+    </row>
+    <row r="8199">
+      <c r="A8199" t="s">
+        <v>3403</v>
+      </c>
+    </row>
+    <row r="8200">
+      <c r="A8200" t="s">
+        <v>6084</v>
+      </c>
+    </row>
+    <row r="8201">
+      <c r="A8201" t="s">
+        <v>6085</v>
+      </c>
+    </row>
+    <row r="8202">
+      <c r="A8202" t="s">
+        <v>6086</v>
+      </c>
+    </row>
+    <row r="8203">
+      <c r="A8203" t="s">
+        <v>6087</v>
+      </c>
+    </row>
+    <row r="8204">
+      <c r="A8204" t="s">
+        <v>6088</v>
+      </c>
+    </row>
+    <row r="8205">
+      <c r="A8205" t="s">
+        <v>6089</v>
+      </c>
+    </row>
+    <row r="8206">
+      <c r="A8206" t="s">
+        <v>6090</v>
+      </c>
+    </row>
+    <row r="8207">
+      <c r="A8207" t="s">
+        <v>6091</v>
+      </c>
+    </row>
+    <row r="8208">
+      <c r="A8208" t="s">
+        <v>6092</v>
+      </c>
+    </row>
+    <row r="8209">
+      <c r="A8209" t="s">
+        <v>6093</v>
+      </c>
+    </row>
+    <row r="8210">
+      <c r="A8210" t="s">
+        <v>6094</v>
+      </c>
+    </row>
+    <row r="8211">
+      <c r="A8211" t="s">
+        <v>6095</v>
+      </c>
+    </row>
+    <row r="8212">
+      <c r="A8212" t="s">
+        <v>6096</v>
+      </c>
+    </row>
+    <row r="8213">
+      <c r="A8213" t="s">
+        <v>6097</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
